--- a/ML1/Data/Codebook.xlsx
+++ b/ML1/Data/Codebook.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rick\Desktop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmathur/Dropbox/Personal computer/Independent studies/2024/ACSB (attention checks and selection bias)/Linked to OSF (ACSB)/Applied examples/ML1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3D1820-7359-3D4A-9CC6-A4E42FC79ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="7995"/>
+    <workbookView xWindow="2460" yWindow="1560" windowWidth="33080" windowHeight="23020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
     <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2186,7 +2200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2237,9 +2251,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2277,9 +2291,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2314,7 +2328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2349,7 +2363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2522,21 +2536,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="86.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="86.5" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>463</v>
       </c>
@@ -2547,7 +2561,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2558,7 +2572,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2569,7 +2583,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2594,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2591,7 +2605,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2602,7 +2616,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2613,7 +2627,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2635,7 +2649,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2646,7 +2660,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2657,7 +2671,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +2682,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2679,7 +2693,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2690,7 +2704,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2701,7 +2715,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2712,7 +2726,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2723,7 +2737,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2734,7 +2748,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2745,7 +2759,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2756,7 +2770,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2767,7 +2781,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2778,7 +2792,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2789,7 +2803,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2800,7 +2814,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2811,7 +2825,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2822,7 +2836,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2833,7 +2847,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2844,7 +2858,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2855,7 +2869,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2866,7 +2880,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2877,7 +2891,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2888,7 +2902,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2899,7 +2913,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2921,7 +2935,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -2932,7 +2946,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2943,7 +2957,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -2954,7 +2968,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -2965,7 +2979,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>72</v>
       </c>
@@ -2976,7 +2990,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2987,7 +3001,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2998,7 +3012,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -3020,7 +3034,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -3031,7 +3045,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -3042,7 +3056,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -3053,7 +3067,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -3064,7 +3078,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>86</v>
       </c>
@@ -3075,7 +3089,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -3086,7 +3100,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -3097,7 +3111,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -3108,7 +3122,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -3119,7 +3133,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -3130,7 +3144,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -3141,7 +3155,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>99</v>
       </c>
@@ -3152,7 +3166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -3163,7 +3177,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>105</v>
       </c>
@@ -3174,7 +3188,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -3185,7 +3199,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -3196,7 +3210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -3207,7 +3221,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -3218,7 +3232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -3229,7 +3243,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>119</v>
       </c>
@@ -3240,7 +3254,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -3251,7 +3265,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -3262,7 +3276,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -3273,7 +3287,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -3284,7 +3298,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -3295,7 +3309,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -3306,7 +3320,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>133</v>
       </c>
@@ -3317,7 +3331,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -3328,7 +3342,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>137</v>
       </c>
@@ -3339,7 +3353,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -3350,7 +3364,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -3361,7 +3375,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>142</v>
       </c>
@@ -3372,7 +3386,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -3394,7 +3408,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>147</v>
       </c>
@@ -3405,7 +3419,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>148</v>
       </c>
@@ -3416,7 +3430,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>150</v>
       </c>
@@ -3427,7 +3441,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>152</v>
       </c>
@@ -3438,7 +3452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>154</v>
       </c>
@@ -3449,7 +3463,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -3460,7 +3474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -3471,7 +3485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>157</v>
       </c>
@@ -3482,7 +3496,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>159</v>
       </c>
@@ -3490,7 +3504,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>161</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>162</v>
       </c>
@@ -3517,7 +3531,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -3528,7 +3542,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>166</v>
       </c>
@@ -3539,7 +3553,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>168</v>
       </c>
@@ -3550,7 +3564,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>170</v>
       </c>
@@ -3561,7 +3575,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -3572,7 +3586,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>174</v>
       </c>
@@ -3583,7 +3597,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -3594,7 +3608,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>178</v>
       </c>
@@ -3605,7 +3619,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>180</v>
       </c>
@@ -3616,7 +3630,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>182</v>
       </c>
@@ -3627,7 +3641,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>184</v>
       </c>
@@ -3638,7 +3652,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>186</v>
       </c>
@@ -3649,7 +3663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>189</v>
       </c>
@@ -3660,7 +3674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>191</v>
       </c>
@@ -3671,7 +3685,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -3682,7 +3696,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>196</v>
       </c>
@@ -3693,7 +3707,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>198</v>
       </c>
@@ -3704,7 +3718,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -3715,7 +3729,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>202</v>
       </c>
@@ -3726,7 +3740,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -3737,7 +3751,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>205</v>
       </c>
@@ -3745,7 +3759,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -3756,7 +3770,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>208</v>
       </c>
@@ -3764,7 +3778,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>209</v>
       </c>
@@ -3772,7 +3786,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>210</v>
       </c>
@@ -3780,7 +3794,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>211</v>
       </c>
@@ -3791,7 +3805,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>213</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>214</v>
       </c>
@@ -3807,7 +3821,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>215</v>
       </c>
@@ -3815,7 +3829,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>216</v>
       </c>
@@ -3823,7 +3837,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>217</v>
       </c>
@@ -3831,7 +3845,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>218</v>
       </c>
@@ -3839,7 +3853,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>219</v>
       </c>
@@ -3850,7 +3864,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -3861,7 +3875,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>225</v>
       </c>
@@ -3872,7 +3886,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>226</v>
       </c>
@@ -3883,7 +3897,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>227</v>
       </c>
@@ -3894,7 +3908,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>228</v>
       </c>
@@ -3905,7 +3919,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>229</v>
       </c>
@@ -3916,7 +3930,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>230</v>
       </c>
@@ -3927,7 +3941,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>231</v>
       </c>
@@ -3938,7 +3952,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>232</v>
       </c>
@@ -3949,7 +3963,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>233</v>
       </c>
@@ -3960,7 +3974,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>234</v>
       </c>
@@ -3971,7 +3985,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>235</v>
       </c>
@@ -3982,7 +3996,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>236</v>
       </c>
@@ -3993,7 +4007,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>237</v>
       </c>
@@ -4004,7 +4018,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>238</v>
       </c>
@@ -4015,7 +4029,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>239</v>
       </c>
@@ -4026,7 +4040,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>240</v>
       </c>
@@ -4037,7 +4051,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>241</v>
       </c>
@@ -4048,7 +4062,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>242</v>
       </c>
@@ -4059,7 +4073,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>243</v>
       </c>
@@ -4070,7 +4084,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>244</v>
       </c>
@@ -4081,7 +4095,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>245</v>
       </c>
@@ -4092,7 +4106,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>246</v>
       </c>
@@ -4103,7 +4117,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>247</v>
       </c>
@@ -4114,7 +4128,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>248</v>
       </c>
@@ -4125,7 +4139,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>249</v>
       </c>
@@ -4136,7 +4150,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>250</v>
       </c>
@@ -4147,7 +4161,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>251</v>
       </c>
@@ -4158,7 +4172,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>252</v>
       </c>
@@ -4169,7 +4183,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>253</v>
       </c>
@@ -4180,7 +4194,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>254</v>
       </c>
@@ -4191,7 +4205,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>255</v>
       </c>
@@ -4202,7 +4216,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>256</v>
       </c>
@@ -4213,7 +4227,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>257</v>
       </c>
@@ -4224,7 +4238,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>258</v>
       </c>
@@ -4235,7 +4249,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>259</v>
       </c>
@@ -4246,7 +4260,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>260</v>
       </c>
@@ -4257,7 +4271,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>261</v>
       </c>
@@ -4268,7 +4282,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>262</v>
       </c>
@@ -4279,7 +4293,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>263</v>
       </c>
@@ -4290,7 +4304,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>264</v>
       </c>
@@ -4301,7 +4315,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>265</v>
       </c>
@@ -4312,7 +4326,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>266</v>
       </c>
@@ -4323,7 +4337,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>267</v>
       </c>
@@ -4334,7 +4348,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>268</v>
       </c>
@@ -4345,7 +4359,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>269</v>
       </c>
@@ -4356,7 +4370,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>270</v>
       </c>
@@ -4367,7 +4381,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>271</v>
       </c>
@@ -4378,7 +4392,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>272</v>
       </c>
@@ -4389,7 +4403,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>273</v>
       </c>
@@ -4400,7 +4414,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>274</v>
       </c>
@@ -4411,7 +4425,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>275</v>
       </c>
@@ -4422,7 +4436,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>276</v>
       </c>
@@ -4433,7 +4447,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>277</v>
       </c>
@@ -4444,7 +4458,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>278</v>
       </c>
@@ -4455,7 +4469,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>279</v>
       </c>
@@ -4466,7 +4480,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>280</v>
       </c>
@@ -4477,7 +4491,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>281</v>
       </c>
@@ -4488,7 +4502,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>282</v>
       </c>
@@ -4499,7 +4513,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>283</v>
       </c>
@@ -4510,7 +4524,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>284</v>
       </c>
@@ -4521,7 +4535,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>285</v>
       </c>
@@ -4532,7 +4546,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>286</v>
       </c>
@@ -4543,7 +4557,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>287</v>
       </c>
@@ -4554,7 +4568,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>288</v>
       </c>
@@ -4565,7 +4579,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>289</v>
       </c>
@@ -4576,7 +4590,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>290</v>
       </c>
@@ -4587,7 +4601,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>291</v>
       </c>
@@ -4598,7 +4612,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>292</v>
       </c>
@@ -4609,7 +4623,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>293</v>
       </c>
@@ -4620,7 +4634,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>294</v>
       </c>
@@ -4631,7 +4645,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>295</v>
       </c>
@@ -4642,7 +4656,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>296</v>
       </c>
@@ -4653,7 +4667,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>297</v>
       </c>
@@ -4664,7 +4678,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>298</v>
       </c>
@@ -4675,7 +4689,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>299</v>
       </c>
@@ -4686,7 +4700,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>300</v>
       </c>
@@ -4697,7 +4711,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>301</v>
       </c>
@@ -4708,7 +4722,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>302</v>
       </c>
@@ -4719,7 +4733,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>303</v>
       </c>
@@ -4730,7 +4744,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>304</v>
       </c>
@@ -4741,7 +4755,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>305</v>
       </c>
@@ -4752,7 +4766,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>306</v>
       </c>
@@ -4763,7 +4777,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>307</v>
       </c>
@@ -4774,7 +4788,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>308</v>
       </c>
@@ -4785,7 +4799,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>309</v>
       </c>
@@ -4796,7 +4810,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>310</v>
       </c>
@@ -4807,7 +4821,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>311</v>
       </c>
@@ -4818,7 +4832,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>312</v>
       </c>
@@ -4829,7 +4843,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>313</v>
       </c>
@@ -4840,7 +4854,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>314</v>
       </c>
@@ -4851,7 +4865,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>315</v>
       </c>
@@ -4862,7 +4876,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>316</v>
       </c>
@@ -4873,7 +4887,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>317</v>
       </c>
@@ -4884,7 +4898,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>318</v>
       </c>
@@ -4895,7 +4909,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>319</v>
       </c>
@@ -4906,7 +4920,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>320</v>
       </c>
@@ -4917,7 +4931,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>321</v>
       </c>
@@ -4928,7 +4942,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>322</v>
       </c>
@@ -4939,7 +4953,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>323</v>
       </c>
@@ -4950,7 +4964,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>324</v>
       </c>
@@ -4961,7 +4975,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>325</v>
       </c>
@@ -4972,7 +4986,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>326</v>
       </c>
@@ -4983,7 +4997,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>327</v>
       </c>
@@ -4994,7 +5008,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>328</v>
       </c>
@@ -5005,7 +5019,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>329</v>
       </c>
@@ -5016,7 +5030,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>330</v>
       </c>
@@ -5027,7 +5041,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>331</v>
       </c>
@@ -5038,7 +5052,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>332</v>
       </c>
@@ -5049,7 +5063,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>333</v>
       </c>
@@ -5060,7 +5074,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>334</v>
       </c>
@@ -5071,7 +5085,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>335</v>
       </c>
@@ -5082,7 +5096,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>336</v>
       </c>
@@ -5093,7 +5107,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>337</v>
       </c>
@@ -5104,7 +5118,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>338</v>
       </c>
@@ -5115,7 +5129,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>339</v>
       </c>
@@ -5126,7 +5140,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>340</v>
       </c>
@@ -5137,7 +5151,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>341</v>
       </c>
@@ -5148,7 +5162,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>342</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>343</v>
       </c>
@@ -5170,7 +5184,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>344</v>
       </c>
@@ -5181,7 +5195,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>345</v>
       </c>
@@ -5192,7 +5206,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>346</v>
       </c>
@@ -5203,7 +5217,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>347</v>
       </c>
@@ -5214,7 +5228,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>348</v>
       </c>
@@ -5225,7 +5239,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>349</v>
       </c>
@@ -5236,7 +5250,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>350</v>
       </c>
@@ -5247,7 +5261,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>351</v>
       </c>
@@ -5258,7 +5272,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>352</v>
       </c>
@@ -5269,7 +5283,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>353</v>
       </c>
@@ -5280,7 +5294,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>354</v>
       </c>
@@ -5291,7 +5305,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>355</v>
       </c>
@@ -5302,7 +5316,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>356</v>
       </c>
@@ -5313,7 +5327,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>357</v>
       </c>
@@ -5324,7 +5338,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>358</v>
       </c>
@@ -5335,7 +5349,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>359</v>
       </c>
@@ -5346,7 +5360,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>360</v>
       </c>
@@ -5357,7 +5371,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>361</v>
       </c>
@@ -5368,7 +5382,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>362</v>
       </c>
@@ -5379,7 +5393,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>363</v>
       </c>
@@ -5390,7 +5404,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>364</v>
       </c>
@@ -5401,7 +5415,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>366</v>
       </c>
@@ -5412,7 +5426,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>368</v>
       </c>
@@ -5423,7 +5437,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>370</v>
       </c>
@@ -5434,7 +5448,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>371</v>
       </c>
@@ -5445,7 +5459,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>372</v>
       </c>
@@ -5456,7 +5470,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>373</v>
       </c>
@@ -5467,7 +5481,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>374</v>
       </c>
@@ -5478,7 +5492,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>375</v>
       </c>
@@ -5489,7 +5503,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>376</v>
       </c>
@@ -5500,7 +5514,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>377</v>
       </c>
@@ -5511,7 +5525,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>378</v>
       </c>
@@ -5522,7 +5536,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>379</v>
       </c>
@@ -5533,7 +5547,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>380</v>
       </c>
@@ -5544,7 +5558,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>381</v>
       </c>
@@ -5555,7 +5569,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>382</v>
       </c>
@@ -5563,7 +5577,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>383</v>
       </c>
@@ -5571,7 +5585,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>384</v>
       </c>
@@ -5579,7 +5593,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>385</v>
       </c>
@@ -5587,7 +5601,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>386</v>
       </c>
@@ -5598,7 +5612,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>388</v>
       </c>
@@ -5609,7 +5623,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>391</v>
       </c>
@@ -5620,7 +5634,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>394</v>
       </c>
@@ -5631,7 +5645,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>396</v>
       </c>
@@ -5642,7 +5656,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>398</v>
       </c>
@@ -5653,7 +5667,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>400</v>
       </c>
@@ -5661,7 +5675,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>401</v>
       </c>
@@ -5672,7 +5686,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>403</v>
       </c>
@@ -5683,7 +5697,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>406</v>
       </c>
@@ -5694,7 +5708,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>408</v>
       </c>
@@ -5702,7 +5716,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>409</v>
       </c>
@@ -5710,7 +5724,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>410</v>
       </c>
@@ -5721,7 +5735,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>412</v>
       </c>
@@ -5729,7 +5743,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>413</v>
       </c>
@@ -5737,7 +5751,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>414</v>
       </c>
@@ -5745,7 +5759,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>415</v>
       </c>
@@ -5753,7 +5767,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>416</v>
       </c>
@@ -5761,7 +5775,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>417</v>
       </c>
@@ -5769,7 +5783,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>418</v>
       </c>
@@ -5777,7 +5791,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>419</v>
       </c>
@@ -5785,7 +5799,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>420</v>
       </c>
@@ -5793,7 +5807,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>421</v>
       </c>
@@ -5801,7 +5815,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>422</v>
       </c>
@@ -5809,7 +5823,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>423</v>
       </c>
@@ -5820,7 +5834,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>425</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>428</v>
       </c>
@@ -5842,7 +5856,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>430</v>
       </c>
@@ -5853,7 +5867,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>432</v>
       </c>
@@ -5864,7 +5878,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>434</v>
       </c>
@@ -5875,7 +5889,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>436</v>
       </c>
@@ -5886,7 +5900,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>438</v>
       </c>
@@ -5897,7 +5911,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>440</v>
       </c>
@@ -5908,7 +5922,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>442</v>
       </c>
@@ -5919,7 +5933,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>444</v>
       </c>
@@ -5930,7 +5944,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>446</v>
       </c>
@@ -5941,7 +5955,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>448</v>
       </c>
@@ -5952,7 +5966,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>450</v>
       </c>
@@ -5963,7 +5977,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>452</v>
       </c>
@@ -5974,7 +5988,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>453</v>
       </c>
@@ -5985,7 +5999,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>454</v>
       </c>
@@ -5996,7 +6010,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>455</v>
       </c>
@@ -6007,7 +6021,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>456</v>
       </c>
@@ -6018,7 +6032,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>457</v>
       </c>
@@ -6029,7 +6043,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>458</v>
       </c>
@@ -6040,7 +6054,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>459</v>
       </c>
@@ -6051,7 +6065,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>460</v>
       </c>
@@ -6062,7 +6076,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>461</v>
       </c>
@@ -6073,7 +6087,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>462</v>
       </c>
@@ -6084,7 +6098,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>616</v>
       </c>
@@ -6095,7 +6109,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>618</v>
       </c>
@@ -6106,7 +6120,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>621</v>
       </c>
@@ -6117,7 +6131,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>623</v>
       </c>
@@ -6128,7 +6142,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>625</v>
       </c>
@@ -6139,7 +6153,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>627</v>
       </c>
@@ -6147,7 +6161,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>629</v>
       </c>
@@ -6155,7 +6169,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>630</v>
       </c>
@@ -6163,7 +6177,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>631</v>
       </c>
@@ -6171,7 +6185,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>632</v>
       </c>
@@ -6179,7 +6193,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>633</v>
       </c>
@@ -6187,7 +6201,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>634</v>
       </c>
@@ -6195,7 +6209,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>635</v>
       </c>
@@ -6203,7 +6217,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>636</v>
       </c>
@@ -6214,7 +6228,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>638</v>
       </c>
@@ -6225,7 +6239,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>640</v>
       </c>
@@ -6236,7 +6250,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>642</v>
       </c>
@@ -6247,7 +6261,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>644</v>
       </c>
@@ -6258,7 +6272,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>646</v>
       </c>
@@ -6269,7 +6283,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>648</v>
       </c>
@@ -6280,7 +6294,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>650</v>
       </c>
@@ -6291,7 +6305,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>652</v>
       </c>
@@ -6302,7 +6316,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>654</v>
       </c>
@@ -6313,7 +6327,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>656</v>
       </c>
@@ -6321,7 +6335,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>657</v>
       </c>
@@ -6329,7 +6343,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>658</v>
       </c>
@@ -6340,7 +6354,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>660</v>
       </c>
@@ -6348,7 +6362,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>661</v>
       </c>
@@ -6356,7 +6370,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>662</v>
       </c>
@@ -6367,7 +6381,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>665</v>
       </c>
@@ -6378,7 +6392,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>667</v>
       </c>
@@ -6386,7 +6400,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>668</v>
       </c>
@@ -6397,7 +6411,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>671</v>
       </c>
@@ -6405,7 +6419,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>673</v>
       </c>
@@ -6416,7 +6430,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>676</v>
       </c>
@@ -6424,7 +6438,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>677</v>
       </c>
@@ -6432,7 +6446,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>678</v>
       </c>
@@ -6443,7 +6457,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>680</v>
       </c>
@@ -6454,7 +6468,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>682</v>
       </c>
@@ -6462,7 +6476,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>683</v>
       </c>
@@ -6470,7 +6484,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>684</v>
       </c>
@@ -6481,7 +6495,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>686</v>
       </c>
@@ -6492,7 +6506,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>688</v>
       </c>
@@ -6503,7 +6517,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>690</v>
       </c>
@@ -6514,7 +6528,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>692</v>
       </c>
@@ -6525,7 +6539,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>695</v>
       </c>
@@ -6536,7 +6550,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>697</v>
       </c>
@@ -6547,7 +6561,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>698</v>
       </c>
@@ -6558,7 +6572,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>700</v>
       </c>
@@ -6569,7 +6583,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>702</v>
       </c>
@@ -6580,7 +6594,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>705</v>
       </c>
@@ -6591,7 +6605,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>707</v>
       </c>
@@ -6602,7 +6616,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>709</v>
       </c>
@@ -6613,7 +6627,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>711</v>
       </c>
@@ -6624,7 +6638,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>713</v>
       </c>
@@ -6641,24 +6655,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
